--- a/Datasets/dit_fall/dit_classrooms.xlsx
+++ b/Datasets/dit_fall/dit_classrooms.xlsx
@@ -390,7 +390,7 @@
         <v>ΤΥΠΟΣ</v>
       </c>
       <c r="C1" s="1" t="str">
-        <v>ΧΩΡΙΤΗΚΟΤΗΤΑ</v>
+        <v>ΧΩΡΗΤΙΚΟΤΗΤΑ</v>
       </c>
     </row>
     <row r="2">
